--- a/Obj_BS.xlsx
+++ b/Obj_BS.xlsx
@@ -500,7 +500,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="C2" t="n">
         <v>600000</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>12253</v>
+        <v>11253</v>
       </c>
       <c r="L2" t="n">
-        <v>12172</v>
+        <v>11179</v>
       </c>
       <c r="M2" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -549,10 +549,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="C3" t="n">
-        <v>660000</v>
+        <v>650000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>14116</v>
+        <v>13916</v>
       </c>
       <c r="L3" t="n">
-        <v>12955</v>
+        <v>12772</v>
       </c>
       <c r="M3" t="n">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4">
@@ -598,10 +598,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="C4" t="n">
-        <v>730000</v>
+        <v>680000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -633,34 +633,38 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>31030</v>
+        <v>30430</v>
       </c>
       <c r="L4" t="n">
-        <v>29885</v>
+        <v>29307</v>
       </c>
       <c r="M4" t="n">
-        <v>1145</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>310000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>710000</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -678,34 +682,38 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>30933</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>28730</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>330000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>750000</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -723,34 +731,38 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6872</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5956</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>800000</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>nan%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -995,13 +1007,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>57398</v>
+        <v>93404</v>
       </c>
       <c r="L12" t="n">
-        <v>55012</v>
+        <v>87943</v>
       </c>
       <c r="M12" t="n">
-        <v>2386</v>
+        <v>5460</v>
       </c>
     </row>
   </sheetData>
